--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Psen1-Notch2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Psen1-Notch2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H2">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I2">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J2">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N2">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P2">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q2">
-        <v>107.0303046100499</v>
+        <v>759.6020923676544</v>
       </c>
       <c r="R2">
-        <v>107.0303046100499</v>
+        <v>6836.41883130889</v>
       </c>
       <c r="S2">
-        <v>0.01065596820872114</v>
+        <v>0.05557361589820876</v>
       </c>
       <c r="T2">
-        <v>0.01065596820872114</v>
+        <v>0.05557361589820876</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H3">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I3">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J3">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N3">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P3">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q3">
-        <v>626.0052625148687</v>
+        <v>758.7449591359623</v>
       </c>
       <c r="R3">
-        <v>626.0052625148687</v>
+        <v>6828.704632223661</v>
       </c>
       <c r="S3">
-        <v>0.06232526572875149</v>
+        <v>0.05551090675947644</v>
       </c>
       <c r="T3">
-        <v>0.06232526572875149</v>
+        <v>0.05551090675947643</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H4">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I4">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J4">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N4">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P4">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q4">
-        <v>925.0123912472513</v>
+        <v>1244.948612441813</v>
       </c>
       <c r="R4">
-        <v>925.0123912472513</v>
+        <v>11204.53751197632</v>
       </c>
       <c r="S4">
-        <v>0.09209450229742031</v>
+        <v>0.09108228728701616</v>
       </c>
       <c r="T4">
-        <v>0.09209450229742031</v>
+        <v>0.09108228728701614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H5">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I5">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J5">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N5">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O5">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P5">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q5">
-        <v>758.9426493505239</v>
+        <v>933.2676353688202</v>
       </c>
       <c r="R5">
-        <v>758.9426493505239</v>
+        <v>8399.408718319381</v>
       </c>
       <c r="S5">
-        <v>0.07556055056730546</v>
+        <v>0.06827924464577856</v>
       </c>
       <c r="T5">
-        <v>0.07556055056730546</v>
+        <v>0.06827924464577854</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H6">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I6">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J6">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N6">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O6">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P6">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q6">
-        <v>122.2644658862949</v>
+        <v>722.4029787796301</v>
       </c>
       <c r="R6">
-        <v>122.2644658862949</v>
+        <v>6501.626809016671</v>
       </c>
       <c r="S6">
-        <v>0.01217268572940505</v>
+        <v>0.05285207356562904</v>
       </c>
       <c r="T6">
-        <v>0.01217268572940505</v>
+        <v>0.05285207356562904</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H7">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I7">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J7">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N7">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O7">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P7">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q7">
-        <v>715.1077383386566</v>
+        <v>721.5878209410631</v>
       </c>
       <c r="R7">
-        <v>715.1077383386566</v>
+        <v>6494.290388469568</v>
       </c>
       <c r="S7">
-        <v>0.07119633409724677</v>
+        <v>0.05279243540892553</v>
       </c>
       <c r="T7">
-        <v>0.07119633409724677</v>
+        <v>0.05279243540892552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H8">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I8">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J8">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N8">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O8">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P8">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q8">
-        <v>1056.674054755799</v>
+        <v>1183.981185797257</v>
       </c>
       <c r="R8">
-        <v>1056.674054755799</v>
+        <v>10655.83067217531</v>
       </c>
       <c r="S8">
-        <v>0.1052027757510556</v>
+        <v>0.08662181991246491</v>
       </c>
       <c r="T8">
-        <v>0.1052027757510556</v>
+        <v>0.08662181991246491</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H9">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I9">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J9">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N9">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O9">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P9">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q9">
-        <v>866.9667716937294</v>
+        <v>887.563800262336</v>
       </c>
       <c r="R9">
-        <v>866.9667716937294</v>
+        <v>7988.074202361024</v>
       </c>
       <c r="S9">
-        <v>0.08631546355814558</v>
+        <v>0.06493548427070384</v>
       </c>
       <c r="T9">
-        <v>0.08631546355814558</v>
+        <v>0.06493548427070382</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H10">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I10">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J10">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N10">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O10">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P10">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q10">
-        <v>127.7788852956506</v>
+        <v>807.2137404773756</v>
       </c>
       <c r="R10">
-        <v>127.7788852956506</v>
+        <v>7264.923664296381</v>
       </c>
       <c r="S10">
-        <v>0.01272170292719532</v>
+        <v>0.05905695470271755</v>
       </c>
       <c r="T10">
-        <v>0.01272170292719532</v>
+        <v>0.05905695470271755</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H11">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I11">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J11">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N11">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O11">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P11">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q11">
-        <v>747.3608051924595</v>
+        <v>806.3028823728579</v>
       </c>
       <c r="R11">
-        <v>747.3608051924595</v>
+        <v>7256.725941355721</v>
       </c>
       <c r="S11">
-        <v>0.07440745879954541</v>
+        <v>0.05899031497259193</v>
       </c>
       <c r="T11">
-        <v>0.07440745879954541</v>
+        <v>0.05899031497259194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H12">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I12">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J12">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N12">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O12">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P12">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q12">
-        <v>1104.332578225136</v>
+        <v>1322.981645586193</v>
       </c>
       <c r="R12">
-        <v>1104.332578225136</v>
+        <v>11906.83481027573</v>
       </c>
       <c r="S12">
-        <v>0.1099476721877623</v>
+        <v>0.09679129974881831</v>
       </c>
       <c r="T12">
-        <v>0.1099476721877623</v>
+        <v>0.09679129974881834</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H13">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I13">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J13">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N13">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O13">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P13">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q13">
-        <v>906.0690436289005</v>
+        <v>991.7645914644403</v>
       </c>
       <c r="R13">
-        <v>906.0690436289005</v>
+        <v>8925.881323179961</v>
       </c>
       <c r="S13">
-        <v>0.09020849710736364</v>
+        <v>0.07255896873018632</v>
       </c>
       <c r="T13">
-        <v>0.09020849710736364</v>
+        <v>0.07255896873018632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H14">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I14">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J14">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.69544181682696</v>
+        <v>27.53580066666666</v>
       </c>
       <c r="N14">
-        <v>4.69544181682696</v>
+        <v>82.60740199999999</v>
       </c>
       <c r="O14">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464767</v>
       </c>
       <c r="P14">
-        <v>0.04428246608326485</v>
+        <v>0.2054887285464768</v>
       </c>
       <c r="Q14">
-        <v>87.70674716538626</v>
+        <v>519.482145458533</v>
       </c>
       <c r="R14">
-        <v>87.70674716538626</v>
+        <v>4675.339309126797</v>
       </c>
       <c r="S14">
-        <v>0.008732109217943332</v>
+        <v>0.0380060843799214</v>
       </c>
       <c r="T14">
-        <v>0.008732109217943332</v>
+        <v>0.0380060843799214</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H15">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I15">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J15">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.46298160951</v>
+        <v>27.50472933333333</v>
       </c>
       <c r="N15">
-        <v>27.46298160951</v>
+        <v>82.514188</v>
       </c>
       <c r="O15">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="P15">
-        <v>0.2590019425456913</v>
+        <v>0.2052568555438283</v>
       </c>
       <c r="Q15">
-        <v>512.9844812049373</v>
+        <v>518.8959630156235</v>
       </c>
       <c r="R15">
-        <v>512.9844812049373</v>
+        <v>4670.063667140612</v>
       </c>
       <c r="S15">
-        <v>0.05107288392014764</v>
+        <v>0.03796319840283439</v>
       </c>
       <c r="T15">
-        <v>0.05107288392014764</v>
+        <v>0.03796319840283439</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H16">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I16">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J16">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.5804867954904</v>
+        <v>45.12975566666668</v>
       </c>
       <c r="N16">
-        <v>40.5804867954904</v>
+        <v>135.389267</v>
       </c>
       <c r="O16">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582615</v>
       </c>
       <c r="P16">
-        <v>0.3827124475749638</v>
+        <v>0.3367854170582616</v>
       </c>
       <c r="Q16">
-        <v>758.0080073541541</v>
+        <v>851.4044164373815</v>
       </c>
       <c r="R16">
-        <v>758.0080073541541</v>
+        <v>7662.639747936433</v>
       </c>
       <c r="S16">
-        <v>0.07546749733872558</v>
+        <v>0.06229001010996216</v>
       </c>
       <c r="T16">
-        <v>0.07546749733872558</v>
+        <v>0.06229001010996218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H17">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I17">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J17">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>33.2949725343422</v>
+        <v>33.831228</v>
       </c>
       <c r="N17">
-        <v>33.2949725343422</v>
+        <v>101.493684</v>
       </c>
       <c r="O17">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="P17">
-        <v>0.31400314379608</v>
+        <v>0.2524689988514334</v>
       </c>
       <c r="Q17">
-        <v>621.9209718418813</v>
+        <v>638.249786802524</v>
       </c>
       <c r="R17">
-        <v>621.9209718418813</v>
+        <v>5744.248081222715</v>
       </c>
       <c r="S17">
-        <v>0.06191863256326535</v>
+        <v>0.04669530120476467</v>
       </c>
       <c r="T17">
-        <v>0.06191863256326535</v>
+        <v>0.04669530120476467</v>
       </c>
     </row>
   </sheetData>
